--- a/dataset/Расписание движения судов.xlsx
+++ b/dataset/Расписание движения судов.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\egorl\OneDrive\Документы\Росатом\Актуальное\Хакатон\Хакатон2\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Projects\ldt-rosatom\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08825A27-D005-4C39-B419-3888F2A1EEF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F31F4C92-B256-49B9-9F37-C5FDBF734FDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="25095" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="3" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="76">
   <si>
     <t>Наименование</t>
   </si>
@@ -55,9 +55,6 @@
     <t>Терминал Утренний</t>
   </si>
   <si>
-    <t>Терминал УТренний</t>
-  </si>
-  <si>
     <t>Мыс Желания</t>
   </si>
   <si>
@@ -233,9 +230,6 @@
   </si>
   <si>
     <t>Индига</t>
-  </si>
-  <si>
-    <t>Победа Месторождение</t>
   </si>
   <si>
     <t>50 лет Победы</t>
@@ -1627,8 +1621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A03F962E-971E-4067-983E-4AA8FBCCE445}">
   <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C63" sqref="C63"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1643,13 +1637,13 @@
   <sheetData>
     <row r="1" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -1664,10 +1658,10 @@
     </row>
     <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C2" s="6">
         <v>15</v>
@@ -1676,7 +1670,7 @@
         <v>6</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F2" s="16">
         <v>44621</v>
@@ -1685,19 +1679,19 @@
     </row>
     <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C3" s="4">
         <v>15</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F3" s="16">
         <v>44622</v>
@@ -1706,19 +1700,19 @@
     </row>
     <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C4" s="4">
         <v>15</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F4" s="16">
         <v>44624</v>
@@ -1727,19 +1721,19 @@
     </row>
     <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C5" s="4">
         <v>15</v>
       </c>
       <c r="D5" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" s="10" t="s">
         <v>59</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>60</v>
       </c>
       <c r="F5" s="16">
         <v>44627</v>
@@ -1748,10 +1742,10 @@
     </row>
     <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C6" s="4">
         <v>15</v>
@@ -1760,7 +1754,7 @@
         <v>6</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F6" s="16">
         <v>44628</v>
@@ -1769,19 +1763,19 @@
     </row>
     <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C7" s="4">
         <v>15</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F7" s="16">
         <v>44632</v>
@@ -1790,10 +1784,10 @@
     </row>
     <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C8" s="4">
         <v>14</v>
@@ -1802,7 +1796,7 @@
         <v>7</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F8" s="16">
         <v>44633</v>
@@ -1811,10 +1805,10 @@
     </row>
     <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C9" s="4">
         <v>14</v>
@@ -1832,10 +1826,10 @@
     </row>
     <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C10" s="4">
         <v>19</v>
@@ -1853,10 +1847,10 @@
     </row>
     <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C11" s="4">
         <v>19</v>
@@ -1865,7 +1859,7 @@
         <v>7</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F11" s="16">
         <v>44635</v>
@@ -1874,10 +1868,10 @@
     </row>
     <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C12" s="4">
         <v>19</v>
@@ -1895,10 +1889,10 @@
     </row>
     <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C13" s="4">
         <v>19</v>
@@ -1916,19 +1910,19 @@
     </row>
     <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C14" s="4">
         <v>19</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F14" s="16">
         <v>44646</v>
@@ -1937,10 +1931,10 @@
     </row>
     <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C15" s="4">
         <v>16</v>
@@ -1958,19 +1952,19 @@
     </row>
     <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C16" s="4">
         <v>14</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F16" s="16">
         <v>44633</v>
@@ -1979,10 +1973,10 @@
     </row>
     <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C17" s="4">
         <v>14</v>
@@ -1991,7 +1985,7 @@
         <v>6</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F17" s="16">
         <v>44644</v>
@@ -2000,19 +1994,19 @@
     </row>
     <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C18" s="4">
         <v>15</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F18" s="16">
         <v>44624</v>
@@ -2021,16 +2015,16 @@
     </row>
     <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C19" s="4">
         <v>15</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E19" s="9" t="s">
         <v>5</v>
@@ -2042,10 +2036,10 @@
     </row>
     <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C20" s="4">
         <v>15</v>
@@ -2054,7 +2048,7 @@
         <v>7</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F20" s="16">
         <v>44639</v>
@@ -2063,10 +2057,10 @@
     </row>
     <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C21" s="4">
         <v>14</v>
@@ -2084,19 +2078,19 @@
     </row>
     <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C22" s="4">
         <v>14</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F22" s="16">
         <v>44644</v>
@@ -2105,16 +2099,16 @@
     </row>
     <row r="23" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C23" s="4">
         <v>12</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E23" s="12" t="s">
         <v>6</v>
@@ -2126,19 +2120,19 @@
     </row>
     <row r="24" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C24" s="4">
         <v>16</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F24" s="16">
         <v>44640</v>
@@ -2147,19 +2141,19 @@
     </row>
     <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C25" s="4">
         <v>16</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F25" s="16">
         <v>44636</v>
@@ -2168,19 +2162,19 @@
     </row>
     <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C26" s="4">
         <v>16</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F26" s="16">
         <v>44652</v>
@@ -2189,19 +2183,19 @@
     </row>
     <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C27" s="4">
         <v>14</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F27" s="16">
         <v>44659</v>
@@ -2210,10 +2204,10 @@
     </row>
     <row r="28" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C28" s="4">
         <v>14</v>
@@ -2222,7 +2216,7 @@
         <v>6</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F28" s="16">
         <v>44661</v>
@@ -2231,19 +2225,19 @@
     </row>
     <row r="29" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C29" s="4">
         <v>18</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F29" s="16">
         <v>44658</v>
@@ -2252,10 +2246,10 @@
     </row>
     <row r="30" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C30" s="4">
         <v>18</v>
@@ -2264,7 +2258,7 @@
         <v>7</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F30" s="16">
         <v>44666</v>
@@ -2273,19 +2267,19 @@
     </row>
     <row r="31" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C31" s="4">
         <v>18</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F31" s="16">
         <v>44667</v>
@@ -2294,16 +2288,16 @@
     </row>
     <row r="32" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C32" s="4">
         <v>18</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E32" s="11" t="s">
         <v>6</v>
@@ -2315,19 +2309,19 @@
     </row>
     <row r="33" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C33" s="4">
         <v>16</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F33" s="16">
         <v>44667</v>
@@ -2336,19 +2330,19 @@
     </row>
     <row r="34" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C34" s="4">
         <v>16</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F34" s="16">
         <v>44657</v>
@@ -2357,16 +2351,16 @@
     </row>
     <row r="35" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C35" s="4">
         <v>16</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E35" s="9" t="s">
         <v>5</v>
@@ -2378,16 +2372,16 @@
     </row>
     <row r="36" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C36" s="4">
         <v>16</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E36" s="9" t="s">
         <v>5</v>
@@ -2399,10 +2393,10 @@
     </row>
     <row r="37" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C37" s="4">
         <v>16</v>
@@ -2420,19 +2414,19 @@
     </row>
     <row r="38" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C38" s="4">
         <v>16</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F38" s="16">
         <v>44674</v>
@@ -2441,16 +2435,16 @@
     </row>
     <row r="39" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C39" s="7">
         <v>16</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E39" s="13" t="s">
         <v>6</v>
@@ -2462,19 +2456,19 @@
     </row>
     <row r="40" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C40" s="8">
         <v>14</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E40" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F40" s="16">
         <v>44678</v>
@@ -2483,19 +2477,19 @@
     </row>
     <row r="41" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C41" s="3">
         <v>14</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E41" s="17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F41" s="16">
         <v>44678</v>
@@ -2504,10 +2498,10 @@
     </row>
     <row r="42" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C42" s="3">
         <v>16</v>
@@ -2525,16 +2519,16 @@
     </row>
     <row r="43" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C43" s="4">
         <v>16</v>
       </c>
       <c r="D43" s="18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E43" s="18" t="s">
         <v>6</v>
@@ -2550,74 +2544,74 @@
         <v>0</v>
       </c>
       <c r="D46" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E46" s="20" t="s">
         <v>1</v>
       </c>
       <c r="F46" s="20" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C47" s="21" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D47" s="22">
         <v>22</v>
       </c>
       <c r="E47" s="22" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F47" s="22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C48" s="21" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D48" s="22">
         <v>21</v>
       </c>
       <c r="E48" s="22" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F48" s="22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C49" s="21" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D49" s="22">
         <v>18.5</v>
       </c>
       <c r="E49" s="22" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F49" s="22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C50" s="21" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D50" s="22">
         <v>18.5</v>
       </c>
       <c r="E50" s="22" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F50" s="23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
